--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nxph3-Nrxn2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nxph3-Nrxn2.xlsx
@@ -540,10 +540,10 @@
         <v>0.421784</v>
       </c>
       <c r="I2">
-        <v>0.4267069177096158</v>
+        <v>0.539087912495223</v>
       </c>
       <c r="J2">
-        <v>0.4267069177096158</v>
+        <v>0.539087912495223</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.04996866666666666</v>
+        <v>0.003710666666666666</v>
       </c>
       <c r="N2">
-        <v>0.149906</v>
+        <v>0.011132</v>
       </c>
       <c r="O2">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="P2">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="Q2">
-        <v>0.007025328033777777</v>
+        <v>0.0005216999431111111</v>
       </c>
       <c r="R2">
-        <v>0.063227952304</v>
+        <v>0.004695299488</v>
       </c>
       <c r="S2">
-        <v>0.009958791798206129</v>
+        <v>0.0008851954287497359</v>
       </c>
       <c r="T2">
-        <v>0.009958791798206128</v>
+        <v>0.0008851954287497359</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.421784</v>
       </c>
       <c r="I3">
-        <v>0.4267069177096158</v>
+        <v>0.539087912495223</v>
       </c>
       <c r="J3">
-        <v>0.4267069177096158</v>
+        <v>0.539087912495223</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.049608666666667</v>
+        <v>2.049608666666666</v>
       </c>
       <c r="N3">
-        <v>6.148826000000001</v>
+        <v>6.148826</v>
       </c>
       <c r="O3">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462568</v>
       </c>
       <c r="P3">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462569</v>
       </c>
       <c r="Q3">
         <v>0.2881640472871111</v>
@@ -632,10 +632,10 @@
         <v>2.593476425584</v>
       </c>
       <c r="S3">
-        <v>0.4084885057128909</v>
+        <v>0.4889429273605392</v>
       </c>
       <c r="T3">
-        <v>0.4084885057128908</v>
+        <v>0.4889429273605393</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,40 +664,40 @@
         <v>0.421784</v>
       </c>
       <c r="I4">
-        <v>0.4267069177096158</v>
+        <v>0.539087912495223</v>
       </c>
       <c r="J4">
-        <v>0.4267069177096158</v>
+        <v>0.539087912495223</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.041443</v>
+        <v>0.206493</v>
       </c>
       <c r="N4">
-        <v>0.124329</v>
+        <v>0.619479</v>
       </c>
       <c r="O4">
-        <v>0.01935665876441155</v>
+        <v>0.09137617179715662</v>
       </c>
       <c r="P4">
-        <v>0.01935665876441155</v>
+        <v>0.09137617179715661</v>
       </c>
       <c r="Q4">
-        <v>0.005826664770666667</v>
+        <v>0.029031814504</v>
       </c>
       <c r="R4">
-        <v>0.052439982936</v>
+        <v>0.261286330536</v>
       </c>
       <c r="S4">
-        <v>0.008259620198518872</v>
+        <v>0.04925978970593404</v>
       </c>
       <c r="T4">
-        <v>0.00825962019851887</v>
+        <v>0.04925978970593403</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.188893</v>
+        <v>0.1202063333333333</v>
       </c>
       <c r="H5">
-        <v>0.566679</v>
+        <v>0.360619</v>
       </c>
       <c r="I5">
-        <v>0.5732930822903841</v>
+        <v>0.460912087504777</v>
       </c>
       <c r="J5">
-        <v>0.5732930822903841</v>
+        <v>0.460912087504777</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.04996866666666666</v>
+        <v>0.003710666666666666</v>
       </c>
       <c r="N5">
-        <v>0.149906</v>
+        <v>0.011132</v>
       </c>
       <c r="O5">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="P5">
-        <v>0.0233387165402913</v>
+        <v>0.001642024256586498</v>
       </c>
       <c r="Q5">
-        <v>0.009438731352666666</v>
+        <v>0.0004460456342222222</v>
       </c>
       <c r="R5">
-        <v>0.084948582174</v>
+        <v>0.004014410708</v>
       </c>
       <c r="S5">
-        <v>0.01337992474208517</v>
+        <v>0.0007568288278367624</v>
       </c>
       <c r="T5">
-        <v>0.01337992474208517</v>
+        <v>0.0007568288278367625</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.188893</v>
+        <v>0.1202063333333333</v>
       </c>
       <c r="H6">
-        <v>0.566679</v>
+        <v>0.360619</v>
       </c>
       <c r="I6">
-        <v>0.5732930822903841</v>
+        <v>0.460912087504777</v>
       </c>
       <c r="J6">
-        <v>0.5732930822903841</v>
+        <v>0.460912087504777</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.049608666666667</v>
+        <v>2.049608666666666</v>
       </c>
       <c r="N6">
-        <v>6.148826000000001</v>
+        <v>6.148826</v>
       </c>
       <c r="O6">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462568</v>
       </c>
       <c r="P6">
-        <v>0.9573046246952972</v>
+        <v>0.9069818039462569</v>
       </c>
       <c r="Q6">
-        <v>0.3871567298726667</v>
+        <v>0.2463759425882222</v>
       </c>
       <c r="R6">
-        <v>3.484410568854001</v>
+        <v>2.217383483294</v>
       </c>
       <c r="S6">
-        <v>0.5488161189824063</v>
+        <v>0.4180388765857176</v>
       </c>
       <c r="T6">
-        <v>0.5488161189824063</v>
+        <v>0.4180388765857177</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,46 +844,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.188893</v>
+        <v>0.1202063333333333</v>
       </c>
       <c r="H7">
-        <v>0.566679</v>
+        <v>0.360619</v>
       </c>
       <c r="I7">
-        <v>0.5732930822903841</v>
+        <v>0.460912087504777</v>
       </c>
       <c r="J7">
-        <v>0.5732930822903841</v>
+        <v>0.460912087504777</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.041443</v>
+        <v>0.206493</v>
       </c>
       <c r="N7">
-        <v>0.124329</v>
+        <v>0.619479</v>
       </c>
       <c r="O7">
-        <v>0.01935665876441155</v>
+        <v>0.09137617179715662</v>
       </c>
       <c r="P7">
-        <v>0.01935665876441155</v>
+        <v>0.09137617179715661</v>
       </c>
       <c r="Q7">
-        <v>0.007828292598999999</v>
+        <v>0.024821766389</v>
       </c>
       <c r="R7">
-        <v>0.070454633391</v>
+        <v>0.223395897501</v>
       </c>
       <c r="S7">
-        <v>0.01109703856589267</v>
+        <v>0.04211638209122259</v>
       </c>
       <c r="T7">
-        <v>0.01109703856589267</v>
+        <v>0.04211638209122259</v>
       </c>
     </row>
   </sheetData>
